--- a/Proyectos/2016/6/P1727 - Servicio Integral de Ventas, Ilse Ponce Ramos _RN/2do curso/BDD CLIENTES ILSE OCTUBRE_APOYO MARISOL.xlsx
+++ b/Proyectos/2016/6/P1727 - Servicio Integral de Ventas, Ilse Ponce Ramos _RN/2do curso/BDD CLIENTES ILSE OCTUBRE_APOYO MARISOL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="234">
   <si>
     <t>Razón Social</t>
   </si>
@@ -511,9 +511,6 @@
     <t>enrique.rodriguez@versatilpublicidad.com</t>
   </si>
   <si>
-    <t>contabilidad@fapatransfers.com</t>
-  </si>
-  <si>
     <t>miguel.guizar@live.com</t>
   </si>
   <si>
@@ -523,9 +520,6 @@
     <t>3313153370</t>
   </si>
   <si>
-    <t>(341)4121812</t>
-  </si>
-  <si>
     <t>36061520</t>
   </si>
   <si>
@@ -680,13 +674,61 @@
   </si>
   <si>
     <t>misma empresa</t>
+  </si>
+  <si>
+    <t>18129903 victor arredondo</t>
+  </si>
+  <si>
+    <t>3314793463 (marca que ha cambiado)</t>
+  </si>
+  <si>
+    <t>mariomonroy15@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>vazda2015@outlook.com</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>llamar mañana a las 12</t>
+  </si>
+  <si>
+    <t>3318630795 BUENO</t>
+  </si>
+  <si>
+    <t>marcar a las 4 despues de comer</t>
+  </si>
+  <si>
+    <t>MNC</t>
+  </si>
+  <si>
+    <t>Se complica, proximo</t>
+  </si>
+  <si>
+    <t>3414121812</t>
+  </si>
+  <si>
+    <t>marcar a las 6, dirigirme con Abraham</t>
+  </si>
+  <si>
+    <t>llamar mañana a las 13:30 para pagol</t>
+  </si>
+  <si>
+    <t>No le interesa, el es de sistemas, se estan migrando de  CCON a un ERP</t>
+  </si>
+  <si>
+    <t>Llamar despues de las 4</t>
+  </si>
+  <si>
+    <t>Contacto Mayely</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,8 +765,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,6 +798,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -764,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -774,12 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -813,6 +868,107 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1122,7 +1278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1130,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1143,22 +1299,23 @@
     <col min="3" max="3" width="53.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="41.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="36.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="47.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="48.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="47.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="39" style="2" customWidth="1"/>
-    <col min="18" max="18" width="46.28515625" style="2" customWidth="1"/>
-    <col min="19" max="22" width="11.42578125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="53.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="41.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="36.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="40.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="47.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="48.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="47.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="39" style="2" customWidth="1"/>
+    <col min="19" max="19" width="46.28515625" style="2" customWidth="1"/>
+    <col min="20" max="23" width="11.42578125" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="46.5">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="46.5">
       <c r="B1" s="1" t="s">
         <v>150</v>
       </c>
@@ -1166,59 +1323,62 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1227,322 +1387,343 @@
       <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>36150177</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>125</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>36150856</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>3311127446</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>2530</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S2" s="2">
         <v>44500</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>661</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>44460</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:19" ht="15" customHeight="1">
+      <c r="B5" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>1912</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>44710</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:19" ht="15" customHeight="1">
+      <c r="B6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="2">
         <v>3311385473</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>3319448752</v>
       </c>
-      <c r="H6" s="2">
-        <v>18129903</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>1039</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>5</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>45100</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="1:19" ht="15" customHeight="1">
+      <c r="B7" s="9"/>
+      <c r="C7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E9" s="37" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="F9" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="25"/>
+      <c r="G10" s="15">
         <v>3313465423</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="K10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="M10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="N10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="O10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O10" s="17">
+      <c r="P10" s="15">
         <v>2925</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="R10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="17">
+      <c r="S10" s="15">
         <v>44670</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3314793463</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3318630795</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="E11" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="9">
         <v>45049</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:19" ht="15" customHeight="1">
+      <c r="B12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1551,700 +1732,738 @@
       <c r="E12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="32"/>
+      <c r="G12" s="18">
         <v>36243886</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>891</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2">
         <v>45180</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+    <row r="13" spans="1:19" ht="15" customHeight="1">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="9">
+        <v>3338458596</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="9">
+        <v>43</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="9">
+        <v>3506</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="9">
+        <v>44720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
+      <c r="B16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3336623763</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2797</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="S16" s="2">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1">
+      <c r="B19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" s="2">
+        <v>123</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" s="2">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="15">
+        <v>3291</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="15">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="C21" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="C22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="C23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="2">
+        <v>999</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="9">
+        <v>2599</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S25" s="9">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="C26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="C27" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="8" t="s">
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1">
+      <c r="B28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="2">
+        <v>201</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
-      <c r="B14" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3338458596</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="F29" s="25"/>
+      <c r="G29" s="15">
+        <v>3336627739</v>
+      </c>
+      <c r="I29" s="15">
+        <v>16540909</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="2">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="N29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="15">
+        <v>1213</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>14</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="15">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O15" s="2">
-        <v>3506</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R15" s="2">
-        <v>44720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3336623763</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="O30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S30" s="9">
+        <v>44240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1">
+      <c r="B31" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="2">
-        <v>2797</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="R16" s="2">
-        <v>44520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" s="2">
+      <c r="N31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P31" s="2">
+        <v>255</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S31" s="2">
+        <v>45116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R19" s="2">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="B20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="17">
-        <v>3291</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="17">
-        <v>44670</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O24" s="2">
-        <v>999</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1">
-      <c r="B25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O25" s="2">
-        <v>2599</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R25" s="2">
-        <v>44530</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="3" t="s">
+    </row>
+    <row r="33" spans="1:18" ht="15" customHeight="1">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15" customHeight="1">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:18" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="C35" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E35" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:18" ht="15" customHeight="1">
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1">
-      <c r="B28" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" s="2">
-        <v>201</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="17">
-        <v>3336627739</v>
-      </c>
-      <c r="H29" s="17">
-        <v>16540909</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="17">
-        <v>1213</v>
-      </c>
-      <c r="P29" s="17">
-        <v>14</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="R29" s="17">
-        <v>45066</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O30" s="2">
-        <v>4</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="R30" s="2">
-        <v>44240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1">
-      <c r="B31" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="O31" s="2">
-        <v>255</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R31" s="2">
-        <v>45116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1">
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1">
-      <c r="B36" s="11"/>
-      <c r="C36" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1">
-      <c r="B37" s="11" t="s">
+    <row r="37" spans="1:18" ht="15" customHeight="1">
+      <c r="B37" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -2253,39 +2472,39 @@
       <c r="E37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="O37" s="2">
+      <c r="P37" s="2">
         <v>540</v>
       </c>
-      <c r="P37" s="2">
+      <c r="Q37" s="2">
         <v>803</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1">
-      <c r="B38" s="11" t="s">
+    <row r="38" spans="1:18" ht="15" customHeight="1">
+      <c r="B38" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2294,290 +2513,292 @@
       <c r="E38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>10310309</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1">
+    <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E40" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1">
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1">
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1">
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1">
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1">
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1">
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1">
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1">
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="3:6" ht="15" customHeight="1">
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="3:6" ht="15" customHeight="1">
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="3:6" ht="15" customHeight="1">
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="3:6" ht="15" customHeight="1">
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="3:6" ht="15" customHeight="1">
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="3:6" ht="15" customHeight="1">
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="3:6" ht="15" customHeight="1">
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="3:6" ht="15" customHeight="1">
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="3:6" ht="15" customHeight="1">
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="3:6" ht="15" customHeight="1">
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="3:6" ht="15" customHeight="1">
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="3:6" ht="15" customHeight="1">
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="3:6" ht="15" customHeight="1">
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="3:6" ht="15" customHeight="1">
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="3:6" ht="15" customHeight="1">
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="3:6" ht="15" customHeight="1">
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="3:6" ht="15" customHeight="1">
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="3:6" ht="15" customHeight="1">
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="3:6" ht="15" customHeight="1">
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="3:6" ht="15" customHeight="1">
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="3:6" ht="15" customHeight="1">
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="3:6" ht="15" customHeight="1">
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="3:6" ht="15" customHeight="1">
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="3:6" ht="15" customHeight="1">
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="3:6" ht="15" customHeight="1">
+      <c r="F40" s="31"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:18" ht="15" customHeight="1">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" ht="15" customHeight="1">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" customHeight="1">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" customHeight="1">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" customHeight="1">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:18" ht="15" customHeight="1">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" customHeight="1">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:18" ht="15" customHeight="1">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="3:7" ht="15" customHeight="1">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="3:7" ht="15" customHeight="1">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="3:7" ht="15" customHeight="1">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="3:7" ht="15" customHeight="1">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="3:7" ht="15" customHeight="1">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="3:7" ht="15" customHeight="1">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="3:7" ht="15" customHeight="1">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="3:7" ht="15" customHeight="1">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="3:7" ht="15" customHeight="1">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="3:7" ht="15" customHeight="1">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="3:7" ht="15" customHeight="1">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="3:7" ht="15" customHeight="1">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="3:7" ht="15" customHeight="1">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="3:7" ht="15" customHeight="1">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="3:7" ht="15" customHeight="1">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="3:7" ht="15" customHeight="1">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="3:7" ht="15" customHeight="1">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="3:7" ht="15" customHeight="1">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="3:7" ht="15" customHeight="1">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="3:7" ht="15" customHeight="1">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="3:7" ht="15" customHeight="1">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="3:7" ht="15" customHeight="1">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="3:7" ht="15" customHeight="1">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="3:7" ht="15" customHeight="1">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="3:7" ht="15" customHeight="1">
       <c r="C73" s="3"/>
-      <c r="D73" s="9"/>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="3:6" ht="15" customHeight="1">
+      <c r="D73" s="7"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="3:7" ht="15" customHeight="1">
       <c r="C74" s="3"/>
-      <c r="D74" s="9"/>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="3:6" ht="15" customHeight="1">
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="3:6" ht="15" customHeight="1">
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="3:6" ht="15" customHeight="1">
-      <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="3:6" ht="15" customHeight="1">
-      <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="3:6" ht="15" customHeight="1">
-      <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="3:6" ht="15" customHeight="1">
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="6:6" ht="15" customHeight="1">
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="6:6" ht="15" customHeight="1">
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="6:6" ht="15" customHeight="1">
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="6:6" ht="15" customHeight="1">
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="6:6" ht="15" customHeight="1">
-      <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="6:6" ht="15" customHeight="1">
-      <c r="F86" s="8"/>
-    </row>
-    <row r="87" spans="6:6" ht="15" customHeight="1">
-      <c r="F87" s="8"/>
-    </row>
-    <row r="88" spans="6:6" ht="15" customHeight="1">
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="6:6" ht="15" customHeight="1">
-      <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="6:6" ht="15" customHeight="1">
-      <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="6:6" ht="15" customHeight="1">
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="6:6" ht="15" customHeight="1">
-      <c r="F92" s="8"/>
-    </row>
-    <row r="93" spans="6:6" ht="15" customHeight="1">
-      <c r="F93" s="8"/>
-    </row>
-    <row r="94" spans="6:6" ht="15" customHeight="1">
-      <c r="F94" s="8"/>
-    </row>
-    <row r="95" spans="6:6" ht="15" customHeight="1">
-      <c r="F95" s="8"/>
+      <c r="D74" s="7"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="3:7" ht="15" customHeight="1">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="3:7" ht="15" customHeight="1">
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="3:7" ht="15" customHeight="1">
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="3:7" ht="15" customHeight="1">
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="3:7" ht="15" customHeight="1">
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="3:7" ht="15" customHeight="1">
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="7:7" ht="15" customHeight="1">
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="7:7" ht="15" customHeight="1">
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="7:7" ht="15" customHeight="1">
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="7:7" ht="15" customHeight="1">
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="7:7" ht="15" customHeight="1">
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="7:7" ht="15" customHeight="1">
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="7:7" ht="15" customHeight="1">
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="7:7" ht="15" customHeight="1">
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="7:7" ht="15" customHeight="1">
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="7:7" ht="15" customHeight="1">
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="7:7" ht="15" customHeight="1">
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="7:7" ht="15" customHeight="1">
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="7:7" ht="15" customHeight="1">
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="7:7" ht="15" customHeight="1">
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="7:7" ht="15" customHeight="1">
+      <c r="G95" s="6"/>
     </row>
   </sheetData>
   <sortState ref="B2:CO193">
@@ -2593,8 +2814,11 @@
     <hyperlink ref="E9" r:id="rId7"/>
     <hyperlink ref="E35" r:id="rId8"/>
     <hyperlink ref="E26" r:id="rId9"/>
+    <hyperlink ref="E4" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="E24" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>